--- a/school_excel_data/学生Insert用/grade3_students.xlsx
+++ b/school_excel_data/学生Insert用/grade3_students.xlsx
@@ -2895,7 +2895,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F334"/>
+      <selection activeCell="F2" sqref="F2:F334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2940,7 +2940,7 @@
         <v>108</v>
       </c>
       <c r="F2" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2960,7 +2960,7 @@
         <v>109</v>
       </c>
       <c r="F3" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -2980,7 +2980,7 @@
         <v>110</v>
       </c>
       <c r="F4" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -3000,7 +3000,7 @@
         <v>111</v>
       </c>
       <c r="F5" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -3020,7 +3020,7 @@
         <v>107</v>
       </c>
       <c r="F6" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -3040,7 +3040,7 @@
         <v>108</v>
       </c>
       <c r="F7" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -3060,7 +3060,7 @@
         <v>109</v>
       </c>
       <c r="F8" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -3080,7 +3080,7 @@
         <v>110</v>
       </c>
       <c r="F9" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -3100,7 +3100,7 @@
         <v>111</v>
       </c>
       <c r="F10" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -3120,7 +3120,7 @@
         <v>107</v>
       </c>
       <c r="F11" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -3140,7 +3140,7 @@
         <v>108</v>
       </c>
       <c r="F12" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -3160,7 +3160,7 @@
         <v>109</v>
       </c>
       <c r="F13" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -3180,7 +3180,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -3200,7 +3200,7 @@
         <v>111</v>
       </c>
       <c r="F15" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -3220,7 +3220,7 @@
         <v>107</v>
       </c>
       <c r="F16" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -3240,7 +3240,7 @@
         <v>108</v>
       </c>
       <c r="F17" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -3260,7 +3260,7 @@
         <v>109</v>
       </c>
       <c r="F18" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -3280,7 +3280,7 @@
         <v>110</v>
       </c>
       <c r="F19" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -3300,7 +3300,7 @@
         <v>111</v>
       </c>
       <c r="F20" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -3320,7 +3320,7 @@
         <v>107</v>
       </c>
       <c r="F21" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -3340,7 +3340,7 @@
         <v>108</v>
       </c>
       <c r="F22" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -3360,7 +3360,7 @@
         <v>109</v>
       </c>
       <c r="F23" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -3380,7 +3380,7 @@
         <v>110</v>
       </c>
       <c r="F24" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -3400,7 +3400,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -3420,7 +3420,7 @@
         <v>107</v>
       </c>
       <c r="F26" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -3440,7 +3440,7 @@
         <v>108</v>
       </c>
       <c r="F27" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -3460,7 +3460,7 @@
         <v>109</v>
       </c>
       <c r="F28" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -3480,7 +3480,7 @@
         <v>110</v>
       </c>
       <c r="F29" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -3500,7 +3500,7 @@
         <v>111</v>
       </c>
       <c r="F30" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -3520,7 +3520,7 @@
         <v>107</v>
       </c>
       <c r="F31" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -3540,7 +3540,7 @@
         <v>108</v>
       </c>
       <c r="F32" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -3560,7 +3560,7 @@
         <v>109</v>
       </c>
       <c r="F33" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -3580,7 +3580,7 @@
         <v>110</v>
       </c>
       <c r="F34" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -3600,7 +3600,7 @@
         <v>111</v>
       </c>
       <c r="F35" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -3620,7 +3620,7 @@
         <v>107</v>
       </c>
       <c r="F36" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -3640,7 +3640,7 @@
         <v>108</v>
       </c>
       <c r="F37" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -3660,7 +3660,7 @@
         <v>109</v>
       </c>
       <c r="F38" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -3680,7 +3680,7 @@
         <v>110</v>
       </c>
       <c r="F39" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -3700,7 +3700,7 @@
         <v>111</v>
       </c>
       <c r="F40" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -3720,7 +3720,7 @@
         <v>107</v>
       </c>
       <c r="F41" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -3740,7 +3740,7 @@
         <v>108</v>
       </c>
       <c r="F42" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -3760,7 +3760,7 @@
         <v>109</v>
       </c>
       <c r="F43" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -3780,7 +3780,7 @@
         <v>110</v>
       </c>
       <c r="F44" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -3800,7 +3800,7 @@
         <v>111</v>
       </c>
       <c r="F45" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -3820,7 +3820,7 @@
         <v>107</v>
       </c>
       <c r="F46" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -3840,7 +3840,7 @@
         <v>108</v>
       </c>
       <c r="F47" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -3860,7 +3860,7 @@
         <v>109</v>
       </c>
       <c r="F48" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -3880,7 +3880,7 @@
         <v>110</v>
       </c>
       <c r="F49" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -3900,7 +3900,7 @@
         <v>111</v>
       </c>
       <c r="F50" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -3920,7 +3920,7 @@
         <v>107</v>
       </c>
       <c r="F51" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -3940,7 +3940,7 @@
         <v>108</v>
       </c>
       <c r="F52" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -3960,7 +3960,7 @@
         <v>109</v>
       </c>
       <c r="F53" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -3980,7 +3980,7 @@
         <v>110</v>
       </c>
       <c r="F54" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -4000,7 +4000,7 @@
         <v>111</v>
       </c>
       <c r="F55" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -4020,7 +4020,7 @@
         <v>107</v>
       </c>
       <c r="F56" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -4040,7 +4040,7 @@
         <v>108</v>
       </c>
       <c r="F57" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -4060,7 +4060,7 @@
         <v>109</v>
       </c>
       <c r="F58" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -4080,7 +4080,7 @@
         <v>110</v>
       </c>
       <c r="F59" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -4100,7 +4100,7 @@
         <v>111</v>
       </c>
       <c r="F60" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -4120,7 +4120,7 @@
         <v>107</v>
       </c>
       <c r="F61" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -4140,7 +4140,7 @@
         <v>108</v>
       </c>
       <c r="F62" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
@@ -4160,7 +4160,7 @@
         <v>109</v>
       </c>
       <c r="F63" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -4180,7 +4180,7 @@
         <v>110</v>
       </c>
       <c r="F64" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
@@ -4200,7 +4200,7 @@
         <v>111</v>
       </c>
       <c r="F65" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
@@ -4220,7 +4220,7 @@
         <v>107</v>
       </c>
       <c r="F66" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
@@ -4240,7 +4240,7 @@
         <v>108</v>
       </c>
       <c r="F67" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
@@ -4260,7 +4260,7 @@
         <v>109</v>
       </c>
       <c r="F68" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
@@ -4280,7 +4280,7 @@
         <v>110</v>
       </c>
       <c r="F69" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -4300,7 +4300,7 @@
         <v>111</v>
       </c>
       <c r="F70" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
@@ -4320,7 +4320,7 @@
         <v>107</v>
       </c>
       <c r="F71" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
@@ -4340,7 +4340,7 @@
         <v>108</v>
       </c>
       <c r="F72" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
@@ -4360,7 +4360,7 @@
         <v>109</v>
       </c>
       <c r="F73" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
@@ -4380,7 +4380,7 @@
         <v>110</v>
       </c>
       <c r="F74" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
@@ -4400,7 +4400,7 @@
         <v>111</v>
       </c>
       <c r="F75" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
@@ -4420,7 +4420,7 @@
         <v>107</v>
       </c>
       <c r="F76" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
@@ -4440,7 +4440,7 @@
         <v>108</v>
       </c>
       <c r="F77" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
@@ -4460,7 +4460,7 @@
         <v>109</v>
       </c>
       <c r="F78" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
@@ -4480,7 +4480,7 @@
         <v>110</v>
       </c>
       <c r="F79" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
@@ -4500,7 +4500,7 @@
         <v>111</v>
       </c>
       <c r="F80" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
@@ -4520,7 +4520,7 @@
         <v>107</v>
       </c>
       <c r="F81" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
@@ -4540,7 +4540,7 @@
         <v>108</v>
       </c>
       <c r="F82" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -4560,7 +4560,7 @@
         <v>109</v>
       </c>
       <c r="F83" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
@@ -4580,7 +4580,7 @@
         <v>110</v>
       </c>
       <c r="F84" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
@@ -4600,7 +4600,7 @@
         <v>111</v>
       </c>
       <c r="F85" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -4620,7 +4620,7 @@
         <v>107</v>
       </c>
       <c r="F86" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
@@ -4640,7 +4640,7 @@
         <v>108</v>
       </c>
       <c r="F87" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -4660,7 +4660,7 @@
         <v>109</v>
       </c>
       <c r="F88" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
@@ -4680,7 +4680,7 @@
         <v>110</v>
       </c>
       <c r="F89" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
@@ -4700,7 +4700,7 @@
         <v>111</v>
       </c>
       <c r="F90" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -4720,7 +4720,7 @@
         <v>107</v>
       </c>
       <c r="F91" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
@@ -4740,7 +4740,7 @@
         <v>108</v>
       </c>
       <c r="F92" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
@@ -4760,7 +4760,7 @@
         <v>109</v>
       </c>
       <c r="F93" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
@@ -4780,7 +4780,7 @@
         <v>110</v>
       </c>
       <c r="F94" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
@@ -4800,7 +4800,7 @@
         <v>111</v>
       </c>
       <c r="F95" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
@@ -4820,7 +4820,7 @@
         <v>107</v>
       </c>
       <c r="F96" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
@@ -4840,7 +4840,7 @@
         <v>108</v>
       </c>
       <c r="F97" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
@@ -4860,7 +4860,7 @@
         <v>109</v>
       </c>
       <c r="F98" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
@@ -4880,7 +4880,7 @@
         <v>110</v>
       </c>
       <c r="F99" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
@@ -4900,7 +4900,7 @@
         <v>111</v>
       </c>
       <c r="F100" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
@@ -4920,7 +4920,7 @@
         <v>107</v>
       </c>
       <c r="F101" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
@@ -4940,7 +4940,7 @@
         <v>108</v>
       </c>
       <c r="F102" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
@@ -4960,7 +4960,7 @@
         <v>109</v>
       </c>
       <c r="F103" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
@@ -4980,7 +4980,7 @@
         <v>110</v>
       </c>
       <c r="F104" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
@@ -5000,7 +5000,7 @@
         <v>111</v>
       </c>
       <c r="F105" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
@@ -5020,7 +5020,7 @@
         <v>107</v>
       </c>
       <c r="F106" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
@@ -5040,7 +5040,7 @@
         <v>108</v>
       </c>
       <c r="F107" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
@@ -5060,7 +5060,7 @@
         <v>109</v>
       </c>
       <c r="F108" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
@@ -5080,7 +5080,7 @@
         <v>110</v>
       </c>
       <c r="F109" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
@@ -5100,7 +5100,7 @@
         <v>111</v>
       </c>
       <c r="F110" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
@@ -5120,7 +5120,7 @@
         <v>107</v>
       </c>
       <c r="F111" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
@@ -5140,7 +5140,7 @@
         <v>108</v>
       </c>
       <c r="F112" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
@@ -5160,7 +5160,7 @@
         <v>109</v>
       </c>
       <c r="F113" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
@@ -5180,7 +5180,7 @@
         <v>110</v>
       </c>
       <c r="F114" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
@@ -5200,7 +5200,7 @@
         <v>111</v>
       </c>
       <c r="F115" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
@@ -5220,7 +5220,7 @@
         <v>107</v>
       </c>
       <c r="F116" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
@@ -5240,7 +5240,7 @@
         <v>108</v>
       </c>
       <c r="F117" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
@@ -5260,7 +5260,7 @@
         <v>109</v>
       </c>
       <c r="F118" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
@@ -5280,7 +5280,7 @@
         <v>110</v>
       </c>
       <c r="F119" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
@@ -5300,7 +5300,7 @@
         <v>111</v>
       </c>
       <c r="F120" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
@@ -5320,7 +5320,7 @@
         <v>107</v>
       </c>
       <c r="F121" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
@@ -5340,7 +5340,7 @@
         <v>108</v>
       </c>
       <c r="F122" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
@@ -5360,7 +5360,7 @@
         <v>109</v>
       </c>
       <c r="F123" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
@@ -5380,7 +5380,7 @@
         <v>110</v>
       </c>
       <c r="F124" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
@@ -5400,7 +5400,7 @@
         <v>111</v>
       </c>
       <c r="F125" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
@@ -5420,7 +5420,7 @@
         <v>107</v>
       </c>
       <c r="F126" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
@@ -5440,7 +5440,7 @@
         <v>108</v>
       </c>
       <c r="F127" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
@@ -5460,7 +5460,7 @@
         <v>109</v>
       </c>
       <c r="F128" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
@@ -5480,7 +5480,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
@@ -5500,7 +5500,7 @@
         <v>111</v>
       </c>
       <c r="F130" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
@@ -5520,7 +5520,7 @@
         <v>107</v>
       </c>
       <c r="F131" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
@@ -5540,7 +5540,7 @@
         <v>108</v>
       </c>
       <c r="F132" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
@@ -5560,7 +5560,7 @@
         <v>109</v>
       </c>
       <c r="F133" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
@@ -5580,7 +5580,7 @@
         <v>110</v>
       </c>
       <c r="F134" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
@@ -5600,7 +5600,7 @@
         <v>111</v>
       </c>
       <c r="F135" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
@@ -5620,7 +5620,7 @@
         <v>107</v>
       </c>
       <c r="F136" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
@@ -5640,7 +5640,7 @@
         <v>108</v>
       </c>
       <c r="F137" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
@@ -5660,7 +5660,7 @@
         <v>109</v>
       </c>
       <c r="F138" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
@@ -5680,7 +5680,7 @@
         <v>110</v>
       </c>
       <c r="F139" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
@@ -5700,7 +5700,7 @@
         <v>111</v>
       </c>
       <c r="F140" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
@@ -5720,7 +5720,7 @@
         <v>107</v>
       </c>
       <c r="F141" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
@@ -5740,7 +5740,7 @@
         <v>108</v>
       </c>
       <c r="F142" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
@@ -5760,7 +5760,7 @@
         <v>109</v>
       </c>
       <c r="F143" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
@@ -5780,7 +5780,7 @@
         <v>110</v>
       </c>
       <c r="F144" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
@@ -5800,7 +5800,7 @@
         <v>111</v>
       </c>
       <c r="F145" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
@@ -5820,7 +5820,7 @@
         <v>107</v>
       </c>
       <c r="F146" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
@@ -5840,7 +5840,7 @@
         <v>108</v>
       </c>
       <c r="F147" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
@@ -5860,7 +5860,7 @@
         <v>109</v>
       </c>
       <c r="F148" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
@@ -5880,7 +5880,7 @@
         <v>110</v>
       </c>
       <c r="F149" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
@@ -5900,7 +5900,7 @@
         <v>111</v>
       </c>
       <c r="F150" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
@@ -5920,7 +5920,7 @@
         <v>107</v>
       </c>
       <c r="F151" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
@@ -5940,7 +5940,7 @@
         <v>108</v>
       </c>
       <c r="F152" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
@@ -5960,7 +5960,7 @@
         <v>109</v>
       </c>
       <c r="F153" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
@@ -5980,7 +5980,7 @@
         <v>110</v>
       </c>
       <c r="F154" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
@@ -6000,7 +6000,7 @@
         <v>111</v>
       </c>
       <c r="F155" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
@@ -6020,7 +6020,7 @@
         <v>107</v>
       </c>
       <c r="F156" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
@@ -6040,7 +6040,7 @@
         <v>108</v>
       </c>
       <c r="F157" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
@@ -6060,7 +6060,7 @@
         <v>109</v>
       </c>
       <c r="F158" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
@@ -6080,7 +6080,7 @@
         <v>110</v>
       </c>
       <c r="F159" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
@@ -6100,7 +6100,7 @@
         <v>111</v>
       </c>
       <c r="F160" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
@@ -6120,7 +6120,7 @@
         <v>107</v>
       </c>
       <c r="F161" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
@@ -6140,7 +6140,7 @@
         <v>108</v>
       </c>
       <c r="F162" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
@@ -6160,7 +6160,7 @@
         <v>109</v>
       </c>
       <c r="F163" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
@@ -6180,7 +6180,7 @@
         <v>110</v>
       </c>
       <c r="F164" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
@@ -6200,7 +6200,7 @@
         <v>111</v>
       </c>
       <c r="F165" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
@@ -6220,7 +6220,7 @@
         <v>107</v>
       </c>
       <c r="F166" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
@@ -6240,7 +6240,7 @@
         <v>108</v>
       </c>
       <c r="F167" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
@@ -6260,7 +6260,7 @@
         <v>109</v>
       </c>
       <c r="F168" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
@@ -6280,7 +6280,7 @@
         <v>110</v>
       </c>
       <c r="F169" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
@@ -6300,7 +6300,7 @@
         <v>111</v>
       </c>
       <c r="F170" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
@@ -6320,7 +6320,7 @@
         <v>107</v>
       </c>
       <c r="F171" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
@@ -6340,7 +6340,7 @@
         <v>108</v>
       </c>
       <c r="F172" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
@@ -6360,7 +6360,7 @@
         <v>109</v>
       </c>
       <c r="F173" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
@@ -6380,7 +6380,7 @@
         <v>110</v>
       </c>
       <c r="F174" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
@@ -6400,7 +6400,7 @@
         <v>111</v>
       </c>
       <c r="F175" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
@@ -6420,7 +6420,7 @@
         <v>107</v>
       </c>
       <c r="F176" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.15">
@@ -6440,7 +6440,7 @@
         <v>108</v>
       </c>
       <c r="F177" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.15">
@@ -6460,7 +6460,7 @@
         <v>109</v>
       </c>
       <c r="F178" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.15">
@@ -6480,7 +6480,7 @@
         <v>110</v>
       </c>
       <c r="F179" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.15">
@@ -6500,7 +6500,7 @@
         <v>111</v>
       </c>
       <c r="F180" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.15">
@@ -6520,7 +6520,7 @@
         <v>107</v>
       </c>
       <c r="F181" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.15">
@@ -6540,7 +6540,7 @@
         <v>108</v>
       </c>
       <c r="F182" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.15">
@@ -6560,7 +6560,7 @@
         <v>109</v>
       </c>
       <c r="F183" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.15">
@@ -6580,7 +6580,7 @@
         <v>110</v>
       </c>
       <c r="F184" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.15">
@@ -6600,7 +6600,7 @@
         <v>111</v>
       </c>
       <c r="F185" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.15">
@@ -6620,7 +6620,7 @@
         <v>107</v>
       </c>
       <c r="F186" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.15">
@@ -6640,7 +6640,7 @@
         <v>108</v>
       </c>
       <c r="F187" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.15">
@@ -6660,7 +6660,7 @@
         <v>109</v>
       </c>
       <c r="F188" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.15">
@@ -6680,7 +6680,7 @@
         <v>110</v>
       </c>
       <c r="F189" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.15">
@@ -6700,7 +6700,7 @@
         <v>111</v>
       </c>
       <c r="F190" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.15">
@@ -6720,7 +6720,7 @@
         <v>107</v>
       </c>
       <c r="F191" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.15">
@@ -6740,7 +6740,7 @@
         <v>108</v>
       </c>
       <c r="F192" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.15">
@@ -6760,7 +6760,7 @@
         <v>109</v>
       </c>
       <c r="F193" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.15">
@@ -6780,7 +6780,7 @@
         <v>110</v>
       </c>
       <c r="F194" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.15">
@@ -6800,7 +6800,7 @@
         <v>111</v>
       </c>
       <c r="F195" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.15">
@@ -6820,7 +6820,7 @@
         <v>107</v>
       </c>
       <c r="F196" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.15">
@@ -6840,7 +6840,7 @@
         <v>108</v>
       </c>
       <c r="F197" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.15">
@@ -6860,7 +6860,7 @@
         <v>109</v>
       </c>
       <c r="F198" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.15">
@@ -6880,7 +6880,7 @@
         <v>110</v>
       </c>
       <c r="F199" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.15">
@@ -6900,7 +6900,7 @@
         <v>111</v>
       </c>
       <c r="F200" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.15">
@@ -6920,7 +6920,7 @@
         <v>107</v>
       </c>
       <c r="F201" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.15">
@@ -6940,7 +6940,7 @@
         <v>108</v>
       </c>
       <c r="F202" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.15">
@@ -6960,7 +6960,7 @@
         <v>109</v>
       </c>
       <c r="F203" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.15">
@@ -6980,7 +6980,7 @@
         <v>110</v>
       </c>
       <c r="F204" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.15">
@@ -7000,7 +7000,7 @@
         <v>111</v>
       </c>
       <c r="F205" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.15">
@@ -7020,7 +7020,7 @@
         <v>107</v>
       </c>
       <c r="F206" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.15">
@@ -7040,7 +7040,7 @@
         <v>108</v>
       </c>
       <c r="F207" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.15">
@@ -7060,7 +7060,7 @@
         <v>109</v>
       </c>
       <c r="F208" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.15">
@@ -7080,7 +7080,7 @@
         <v>110</v>
       </c>
       <c r="F209" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.15">
@@ -7100,7 +7100,7 @@
         <v>111</v>
       </c>
       <c r="F210" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.15">
@@ -7120,7 +7120,7 @@
         <v>107</v>
       </c>
       <c r="F211" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.15">
@@ -7140,7 +7140,7 @@
         <v>108</v>
       </c>
       <c r="F212" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.15">
@@ -7160,7 +7160,7 @@
         <v>109</v>
       </c>
       <c r="F213" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.15">
@@ -7180,7 +7180,7 @@
         <v>110</v>
       </c>
       <c r="F214" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.15">
@@ -7200,7 +7200,7 @@
         <v>111</v>
       </c>
       <c r="F215" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.15">
@@ -7220,7 +7220,7 @@
         <v>107</v>
       </c>
       <c r="F216" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.15">
@@ -7240,7 +7240,7 @@
         <v>108</v>
       </c>
       <c r="F217" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.15">
@@ -7260,7 +7260,7 @@
         <v>109</v>
       </c>
       <c r="F218" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.15">
@@ -7280,7 +7280,7 @@
         <v>110</v>
       </c>
       <c r="F219" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.15">
@@ -7300,7 +7300,7 @@
         <v>111</v>
       </c>
       <c r="F220" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.15">
@@ -7320,7 +7320,7 @@
         <v>107</v>
       </c>
       <c r="F221" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.15">
@@ -7340,7 +7340,7 @@
         <v>108</v>
       </c>
       <c r="F222" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.15">
@@ -7360,7 +7360,7 @@
         <v>109</v>
       </c>
       <c r="F223" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.15">
@@ -7380,7 +7380,7 @@
         <v>110</v>
       </c>
       <c r="F224" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.15">
@@ -7400,7 +7400,7 @@
         <v>111</v>
       </c>
       <c r="F225" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.15">
@@ -7420,7 +7420,7 @@
         <v>107</v>
       </c>
       <c r="F226" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.15">
@@ -7440,7 +7440,7 @@
         <v>108</v>
       </c>
       <c r="F227" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.15">
@@ -7460,7 +7460,7 @@
         <v>109</v>
       </c>
       <c r="F228" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.15">
@@ -7480,7 +7480,7 @@
         <v>110</v>
       </c>
       <c r="F229" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.15">
@@ -7500,7 +7500,7 @@
         <v>111</v>
       </c>
       <c r="F230" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.15">
@@ -7520,7 +7520,7 @@
         <v>107</v>
       </c>
       <c r="F231" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.15">
@@ -7540,7 +7540,7 @@
         <v>108</v>
       </c>
       <c r="F232" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.15">
@@ -7560,7 +7560,7 @@
         <v>109</v>
       </c>
       <c r="F233" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.15">
@@ -7580,7 +7580,7 @@
         <v>110</v>
       </c>
       <c r="F234" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.15">
@@ -7600,7 +7600,7 @@
         <v>111</v>
       </c>
       <c r="F235" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.15">
@@ -7620,7 +7620,7 @@
         <v>107</v>
       </c>
       <c r="F236" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.15">
@@ -7640,7 +7640,7 @@
         <v>108</v>
       </c>
       <c r="F237" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.15">
@@ -7660,7 +7660,7 @@
         <v>109</v>
       </c>
       <c r="F238" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.15">
@@ -7680,7 +7680,7 @@
         <v>110</v>
       </c>
       <c r="F239" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.15">
@@ -7700,7 +7700,7 @@
         <v>111</v>
       </c>
       <c r="F240" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.15">
@@ -7720,7 +7720,7 @@
         <v>107</v>
       </c>
       <c r="F241" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.15">
@@ -7740,7 +7740,7 @@
         <v>108</v>
       </c>
       <c r="F242" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.15">
@@ -7760,7 +7760,7 @@
         <v>109</v>
       </c>
       <c r="F243" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.15">
@@ -7780,7 +7780,7 @@
         <v>110</v>
       </c>
       <c r="F244" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.15">
@@ -7800,7 +7800,7 @@
         <v>111</v>
       </c>
       <c r="F245" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.15">
@@ -7820,7 +7820,7 @@
         <v>107</v>
       </c>
       <c r="F246" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.15">
@@ -7840,7 +7840,7 @@
         <v>108</v>
       </c>
       <c r="F247" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.15">
@@ -7860,7 +7860,7 @@
         <v>109</v>
       </c>
       <c r="F248" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.15">
@@ -7880,7 +7880,7 @@
         <v>110</v>
       </c>
       <c r="F249" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.15">
@@ -7900,7 +7900,7 @@
         <v>111</v>
       </c>
       <c r="F250" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.15">
@@ -7920,7 +7920,7 @@
         <v>107</v>
       </c>
       <c r="F251" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.15">
@@ -7940,7 +7940,7 @@
         <v>108</v>
       </c>
       <c r="F252" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.15">
@@ -7960,7 +7960,7 @@
         <v>109</v>
       </c>
       <c r="F253" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.15">
@@ -7980,7 +7980,7 @@
         <v>110</v>
       </c>
       <c r="F254" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.15">
@@ -8000,7 +8000,7 @@
         <v>111</v>
       </c>
       <c r="F255" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.15">
@@ -8020,7 +8020,7 @@
         <v>107</v>
       </c>
       <c r="F256" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.15">
@@ -8040,7 +8040,7 @@
         <v>108</v>
       </c>
       <c r="F257" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.15">
@@ -8060,7 +8060,7 @@
         <v>109</v>
       </c>
       <c r="F258" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.15">
@@ -8080,7 +8080,7 @@
         <v>110</v>
       </c>
       <c r="F259" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.15">
@@ -8100,7 +8100,7 @@
         <v>111</v>
       </c>
       <c r="F260" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.15">
@@ -8120,7 +8120,7 @@
         <v>107</v>
       </c>
       <c r="F261" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.15">
@@ -8140,7 +8140,7 @@
         <v>108</v>
       </c>
       <c r="F262" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.15">
@@ -8160,7 +8160,7 @@
         <v>109</v>
       </c>
       <c r="F263" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.15">
@@ -8180,7 +8180,7 @@
         <v>110</v>
       </c>
       <c r="F264" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.15">
@@ -8200,7 +8200,7 @@
         <v>111</v>
       </c>
       <c r="F265" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.15">
@@ -8220,7 +8220,7 @@
         <v>107</v>
       </c>
       <c r="F266" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.15">
@@ -8240,7 +8240,7 @@
         <v>108</v>
       </c>
       <c r="F267" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.15">
@@ -8260,7 +8260,7 @@
         <v>109</v>
       </c>
       <c r="F268" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.15">
@@ -8280,7 +8280,7 @@
         <v>110</v>
       </c>
       <c r="F269" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.15">
@@ -8300,7 +8300,7 @@
         <v>111</v>
       </c>
       <c r="F270" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.15">
@@ -8320,7 +8320,7 @@
         <v>107</v>
       </c>
       <c r="F271" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.15">
@@ -8340,7 +8340,7 @@
         <v>108</v>
       </c>
       <c r="F272" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.15">
@@ -8360,7 +8360,7 @@
         <v>109</v>
       </c>
       <c r="F273" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.15">
@@ -8380,7 +8380,7 @@
         <v>110</v>
       </c>
       <c r="F274" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.15">
@@ -8400,7 +8400,7 @@
         <v>111</v>
       </c>
       <c r="F275" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.15">
@@ -8420,7 +8420,7 @@
         <v>107</v>
       </c>
       <c r="F276" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.15">
@@ -8440,7 +8440,7 @@
         <v>108</v>
       </c>
       <c r="F277" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.15">
@@ -8460,7 +8460,7 @@
         <v>109</v>
       </c>
       <c r="F278" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.15">
@@ -8480,7 +8480,7 @@
         <v>110</v>
       </c>
       <c r="F279" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.15">
@@ -8500,7 +8500,7 @@
         <v>111</v>
       </c>
       <c r="F280" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.15">
@@ -8520,7 +8520,7 @@
         <v>107</v>
       </c>
       <c r="F281" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.15">
@@ -8540,7 +8540,7 @@
         <v>108</v>
       </c>
       <c r="F282" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.15">
@@ -8560,7 +8560,7 @@
         <v>109</v>
       </c>
       <c r="F283" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.15">
@@ -8580,7 +8580,7 @@
         <v>110</v>
       </c>
       <c r="F284" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.15">
@@ -8600,7 +8600,7 @@
         <v>111</v>
       </c>
       <c r="F285" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.15">
@@ -8620,7 +8620,7 @@
         <v>107</v>
       </c>
       <c r="F286" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.15">
@@ -8640,7 +8640,7 @@
         <v>108</v>
       </c>
       <c r="F287" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.15">
@@ -8660,7 +8660,7 @@
         <v>109</v>
       </c>
       <c r="F288" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.15">
@@ -8680,7 +8680,7 @@
         <v>110</v>
       </c>
       <c r="F289" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.15">
@@ -8700,7 +8700,7 @@
         <v>111</v>
       </c>
       <c r="F290" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.15">
@@ -8720,7 +8720,7 @@
         <v>107</v>
       </c>
       <c r="F291" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.15">
@@ -8740,7 +8740,7 @@
         <v>108</v>
       </c>
       <c r="F292" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.15">
@@ -8760,7 +8760,7 @@
         <v>109</v>
       </c>
       <c r="F293" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.15">
@@ -8780,7 +8780,7 @@
         <v>110</v>
       </c>
       <c r="F294" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.15">
@@ -8800,7 +8800,7 @@
         <v>111</v>
       </c>
       <c r="F295" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.15">
@@ -8820,7 +8820,7 @@
         <v>107</v>
       </c>
       <c r="F296" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.15">
@@ -8840,7 +8840,7 @@
         <v>108</v>
       </c>
       <c r="F297" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.15">
@@ -8860,7 +8860,7 @@
         <v>109</v>
       </c>
       <c r="F298" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.15">
@@ -8880,7 +8880,7 @@
         <v>110</v>
       </c>
       <c r="F299" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.15">
@@ -8900,7 +8900,7 @@
         <v>111</v>
       </c>
       <c r="F300" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.15">
@@ -8920,7 +8920,7 @@
         <v>107</v>
       </c>
       <c r="F301" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.15">
@@ -8940,7 +8940,7 @@
         <v>108</v>
       </c>
       <c r="F302" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.15">
@@ -8960,7 +8960,7 @@
         <v>109</v>
       </c>
       <c r="F303" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.15">
@@ -8980,7 +8980,7 @@
         <v>110</v>
       </c>
       <c r="F304" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.15">
@@ -9000,7 +9000,7 @@
         <v>111</v>
       </c>
       <c r="F305" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.15">
@@ -9020,7 +9020,7 @@
         <v>107</v>
       </c>
       <c r="F306" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.15">
@@ -9040,7 +9040,7 @@
         <v>108</v>
       </c>
       <c r="F307" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.15">
@@ -9060,7 +9060,7 @@
         <v>109</v>
       </c>
       <c r="F308" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.15">
@@ -9080,7 +9080,7 @@
         <v>110</v>
       </c>
       <c r="F309" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.15">
@@ -9100,7 +9100,7 @@
         <v>111</v>
       </c>
       <c r="F310" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.15">
@@ -9120,7 +9120,7 @@
         <v>107</v>
       </c>
       <c r="F311" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.15">
@@ -9140,7 +9140,7 @@
         <v>108</v>
       </c>
       <c r="F312" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.15">
@@ -9160,7 +9160,7 @@
         <v>109</v>
       </c>
       <c r="F313" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.15">
@@ -9180,7 +9180,7 @@
         <v>110</v>
       </c>
       <c r="F314" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.15">
@@ -9200,7 +9200,7 @@
         <v>111</v>
       </c>
       <c r="F315" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.15">
@@ -9220,7 +9220,7 @@
         <v>107</v>
       </c>
       <c r="F316" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.15">
@@ -9240,7 +9240,7 @@
         <v>108</v>
       </c>
       <c r="F317" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.15">
@@ -9260,7 +9260,7 @@
         <v>109</v>
       </c>
       <c r="F318" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.15">
@@ -9280,7 +9280,7 @@
         <v>110</v>
       </c>
       <c r="F319" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.15">
@@ -9300,7 +9300,7 @@
         <v>111</v>
       </c>
       <c r="F320" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.15">
@@ -9320,7 +9320,7 @@
         <v>107</v>
       </c>
       <c r="F321" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.15">
@@ -9340,7 +9340,7 @@
         <v>108</v>
       </c>
       <c r="F322" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.15">
@@ -9360,7 +9360,7 @@
         <v>109</v>
       </c>
       <c r="F323" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.15">
@@ -9380,7 +9380,7 @@
         <v>110</v>
       </c>
       <c r="F324" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.15">
@@ -9400,7 +9400,7 @@
         <v>111</v>
       </c>
       <c r="F325" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.15">
@@ -9420,7 +9420,7 @@
         <v>107</v>
       </c>
       <c r="F326" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.15">
@@ -9440,7 +9440,7 @@
         <v>108</v>
       </c>
       <c r="F327" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.15">
@@ -9460,7 +9460,7 @@
         <v>109</v>
       </c>
       <c r="F328" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.15">
@@ -9480,7 +9480,7 @@
         <v>110</v>
       </c>
       <c r="F329" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.15">
@@ -9500,7 +9500,7 @@
         <v>111</v>
       </c>
       <c r="F330" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.15">
@@ -9520,7 +9520,7 @@
         <v>107</v>
       </c>
       <c r="F331" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.15">
@@ -9540,7 +9540,7 @@
         <v>108</v>
       </c>
       <c r="F332" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.15">
@@ -9560,7 +9560,7 @@
         <v>109</v>
       </c>
       <c r="F333" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.15">
@@ -9580,7 +9580,7 @@
         <v>110</v>
       </c>
       <c r="F334" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.15">
